--- a/TestData/testdata.xlsx
+++ b/TestData/testdata.xlsx
@@ -8,13 +8,17 @@
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Sheet2!$A$1:$E$2</definedName>
+  </definedNames>
   <calcPr calcId="122211"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="26">
   <si>
     <t>Admin</t>
   </si>
@@ -37,39 +41,9 @@
     <t>srekamaliamirgokulkutty</t>
   </si>
   <si>
-    <t>Kamali</t>
-  </si>
-  <si>
-    <t>kutty</t>
-  </si>
-  <si>
-    <t>vasan</t>
-  </si>
-  <si>
-    <t>amir</t>
-  </si>
-  <si>
-    <t>gokul</t>
-  </si>
-  <si>
-    <t>geegovind</t>
-  </si>
-  <si>
-    <t>srikamaliamirgokulkutty1234@gmail.com</t>
-  </si>
-  <si>
-    <t>srikamaliamirgokulkutty121212@gmail.com</t>
-  </si>
-  <si>
     <t>all good test1</t>
   </si>
   <si>
-    <t>all good test2</t>
-  </si>
-  <si>
-    <t>all good test3</t>
-  </si>
-  <si>
     <t>user</t>
   </si>
   <si>
@@ -98,12 +72,40 @@
   </si>
   <si>
     <t>text</t>
+  </si>
+  <si>
+    <t>intime</t>
+  </si>
+  <si>
+    <t>outtime</t>
+  </si>
+  <si>
+    <t>outdate</t>
+  </si>
+  <si>
+    <t>8/13/2025</t>
+  </si>
+  <si>
+    <t>12:49 AM</t>
+  </si>
+  <si>
+    <t>2025-12-08</t>
+  </si>
+  <si>
+    <t>empid</t>
+  </si>
+  <si>
+    <t>James  Butler</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <numFmts count="2">
+    <numFmt numFmtId="164" formatCode="dd/mm/yyyy;@"/>
+    <numFmt numFmtId="165" formatCode="yyyy/dd/mm"/>
+  </numFmts>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -142,10 +144,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1"/>
+    <xf numFmtId="18" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -451,10 +456,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J4"/>
+  <dimension ref="A1:K2"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="J1" sqref="J1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -468,42 +473,46 @@
     <col min="7" max="7" width="11" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="28.42578125" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="8.7109375" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="8" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="12.85546875" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="17.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>18</v>
+        <v>8</v>
       </c>
       <c r="B1" t="s">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="C1" t="s">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="D1" t="s">
-        <v>21</v>
+        <v>11</v>
       </c>
       <c r="E1" t="s">
-        <v>22</v>
+        <v>12</v>
       </c>
       <c r="F1" t="s">
-        <v>23</v>
+        <v>13</v>
       </c>
       <c r="G1" t="s">
+        <v>14</v>
+      </c>
+      <c r="H1" t="s">
+        <v>15</v>
+      </c>
+      <c r="I1" t="s">
+        <v>16</v>
+      </c>
+      <c r="J1" t="s">
+        <v>17</v>
+      </c>
+      <c r="K1" t="s">
         <v>24</v>
       </c>
-      <c r="H1" t="s">
-        <v>25</v>
-      </c>
-      <c r="I1" t="s">
-        <v>26</v>
-      </c>
-      <c r="J1" t="s">
-        <v>27</v>
-      </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -532,80 +541,89 @@
         <v>45816</v>
       </c>
       <c r="J2" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>0</v>
-      </c>
-      <c r="B3" t="s">
-        <v>1</v>
-      </c>
-      <c r="C3" t="s">
         <v>7</v>
       </c>
-      <c r="D3" t="s">
-        <v>8</v>
-      </c>
-      <c r="E3" t="s">
-        <v>9</v>
-      </c>
-      <c r="F3" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="G3">
-        <v>9900112211</v>
-      </c>
-      <c r="H3" t="s">
-        <v>6</v>
-      </c>
-      <c r="I3" s="2">
-        <v>45816</v>
-      </c>
-      <c r="J3" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" t="s">
-        <v>1</v>
-      </c>
-      <c r="C4" t="s">
-        <v>10</v>
-      </c>
-      <c r="D4" t="s">
-        <v>11</v>
-      </c>
-      <c r="E4" t="s">
-        <v>12</v>
-      </c>
-      <c r="F4" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="G4">
-        <v>9122222222</v>
-      </c>
-      <c r="H4" t="s">
-        <v>6</v>
-      </c>
-      <c r="I4" s="2">
-        <v>45816</v>
-      </c>
-      <c r="J4" t="s">
-        <v>17</v>
+      <c r="K2" t="s">
+        <v>25</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="F2" r:id="rId1"/>
-    <hyperlink ref="F3" r:id="rId2"/>
-    <hyperlink ref="F4" r:id="rId3"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId4"/>
+  <pageSetup orientation="portrait" r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:G2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C3" sqref="C3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="12.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.5703125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.5703125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="28.42578125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="8" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D1" t="s">
+        <v>18</v>
+      </c>
+      <c r="E1" t="s">
+        <v>17</v>
+      </c>
+      <c r="F1" t="s">
+        <v>19</v>
+      </c>
+      <c r="G1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="E2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F2" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="G2" s="3" t="s">
+        <v>21</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>